--- a/public/static/results/orienteering/latest-results.xlsx
+++ b/public/static/results/orienteering/latest-results.xlsx
@@ -10643,8 +10643,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="22" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="22" style="0" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="21.17"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11254,7 +11255,7 @@
         <v>1240</v>
       </c>
       <c r="T10" s="11" t="n">
-        <v>42.6045227920228</v>
+        <v>92.31</v>
       </c>
       <c r="U10" s="15" t="n">
         <v>1100</v>
@@ -31478,7 +31479,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/static/results/orienteering/latest-results.xlsx
+++ b/public/static/results/orienteering/latest-results.xlsx
@@ -29,7 +29,7 @@
   </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2180,12 +2180,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <i val="true"/>
       <u val="single"/>
@@ -2193,6 +2187,12 @@
       <color rgb="FF000000"/>
       <name val="Arial1"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2591,13 +2591,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -2818,47 +2818,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2870,9 +2870,9 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
-    <cellStyle name="Normal 3" xfId="21"/>
-    <cellStyle name="Result2" xfId="22"/>
+    <cellStyle name="Result2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="21"/>
+    <cellStyle name="Normal 3" xfId="22"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -16525,7 +16525,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
   <location ref="A3:G58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField compact="0" showAll="0"/>
@@ -16628,24 +16628,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A3:C45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="14.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="5" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -16654,7 +16652,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -16665,7 +16663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -16676,7 +16674,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -16685,7 +16683,7 @@
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -16696,7 +16694,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -16707,7 +16705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -16716,7 +16714,7 @@
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -16727,7 +16725,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -16738,7 +16736,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -16749,7 +16747,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -16760,7 +16758,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -16769,7 +16767,7 @@
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -16778,7 +16776,7 @@
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -16789,7 +16787,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -16800,7 +16798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -16809,7 +16807,7 @@
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -16820,7 +16818,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -16831,7 +16829,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -16840,7 +16838,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -16851,7 +16849,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -16862,7 +16860,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -16873,7 +16871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -16884,7 +16882,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -16895,7 +16893,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -16906,7 +16904,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
@@ -16917,7 +16915,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -16928,7 +16926,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -16939,7 +16937,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -16950,7 +16948,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -16961,7 +16959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -16972,7 +16970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -16983,7 +16981,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -16994,7 +16992,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -17005,7 +17003,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -17014,7 +17012,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
@@ -17023,7 +17021,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -17034,7 +17032,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -17045,7 +17043,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
@@ -17056,7 +17054,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
@@ -17067,7 +17065,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -17078,7 +17076,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -17089,7 +17087,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
         <v>45</v>
       </c>
@@ -17100,7 +17098,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -17120,14 +17118,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="1" style="54" width="8.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="54" width="9.99"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="12" style="54" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="54" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="54" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="54" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="13" style="59" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
         <v>66</v>
       </c>
@@ -17165,7 +17164,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="54" t="n">
         <v>1</v>
       </c>
@@ -17203,7 +17202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="54" t="n">
         <v>2</v>
       </c>
@@ -17241,7 +17240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="n">
         <v>3</v>
       </c>
@@ -17279,7 +17278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="54" t="n">
         <v>4</v>
       </c>
@@ -17317,7 +17316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="54" t="n">
         <v>5</v>
       </c>
@@ -17355,7 +17354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="54" t="n">
         <v>6</v>
       </c>
@@ -17393,7 +17392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="54" t="n">
         <v>7</v>
       </c>
@@ -17431,7 +17430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="54" t="n">
         <v>8</v>
       </c>
@@ -17469,7 +17468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="54" t="n">
         <v>9</v>
       </c>
@@ -17507,7 +17506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="54" t="n">
         <v>10</v>
       </c>
@@ -17545,7 +17544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="54" t="n">
         <v>11</v>
       </c>
@@ -17583,7 +17582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="54" t="n">
         <v>12</v>
       </c>
@@ -17621,7 +17620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="54" t="n">
         <v>13</v>
       </c>
@@ -17659,7 +17658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="54" t="n">
         <v>14</v>
       </c>
@@ -17697,7 +17696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="54" t="n">
         <v>15</v>
       </c>
@@ -17735,7 +17734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="54" t="n">
         <v>16</v>
       </c>
@@ -17773,7 +17772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="54" t="n">
         <v>17</v>
       </c>
@@ -17811,7 +17810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="54" t="n">
         <v>18</v>
       </c>
@@ -17849,7 +17848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="54" t="n">
         <v>19</v>
       </c>
@@ -17887,7 +17886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="54" t="n">
         <v>20</v>
       </c>
@@ -17925,7 +17924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="54" t="n">
         <v>21</v>
       </c>
@@ -17963,7 +17962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="54" t="n">
         <v>22</v>
       </c>
@@ -18001,7 +18000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="54" t="n">
         <v>23</v>
       </c>
@@ -18039,7 +18038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="54" t="n">
         <v>24</v>
       </c>
@@ -18077,7 +18076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="54" t="n">
         <v>25</v>
       </c>
@@ -18115,7 +18114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="54" t="n">
         <v>26</v>
       </c>
@@ -18153,7 +18152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="54" t="n">
         <v>27</v>
       </c>
@@ -18191,7 +18190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="54" t="n">
         <v>28</v>
       </c>
@@ -18229,7 +18228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="54" t="n">
         <v>29</v>
       </c>
@@ -18267,7 +18266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="54" t="n">
         <v>30</v>
       </c>
@@ -18305,7 +18304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="54" t="n">
         <v>31</v>
       </c>
@@ -18343,7 +18342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="54" t="n">
         <v>32</v>
       </c>
@@ -18381,7 +18380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="54" t="n">
         <v>33</v>
       </c>
@@ -18419,7 +18418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="54" t="n">
         <v>34</v>
       </c>
@@ -18457,7 +18456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="54" t="n">
         <v>35</v>
       </c>
@@ -18495,7 +18494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="54" t="n">
         <v>36</v>
       </c>
@@ -18533,7 +18532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="54" t="n">
         <v>37</v>
       </c>
@@ -18571,7 +18570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="54" t="n">
         <v>38</v>
       </c>
@@ -18609,7 +18608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="54" t="n">
         <v>39</v>
       </c>
@@ -18647,7 +18646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="54" t="n">
         <v>40</v>
       </c>
@@ -18685,7 +18684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="54" t="n">
         <v>41</v>
       </c>
@@ -18723,7 +18722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="54" t="n">
         <v>42</v>
       </c>
@@ -18761,7 +18760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="54" t="n">
         <v>43</v>
       </c>
@@ -18799,7 +18798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="54" t="n">
         <v>44</v>
       </c>
@@ -18837,7 +18836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="54" t="n">
         <v>45</v>
       </c>
@@ -18875,7 +18874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="54" t="n">
         <v>48</v>
       </c>
@@ -18913,7 +18912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="54" t="n">
         <v>49</v>
       </c>
@@ -18953,7 +18952,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -18973,1345 +18972,1345 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="1" style="59" width="8.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="13" style="60" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="60" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="13" style="59" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="n">
+      <c r="A2" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="60" t="s">
         <v>679</v>
       </c>
       <c r="E2" s="61" t="n">
         <v>2.47916666666667</v>
       </c>
-      <c r="F2" s="59" t="n">
+      <c r="F2" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="G2" s="59" t="n">
+      <c r="G2" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="H2" s="59" t="n">
+      <c r="H2" s="60" t="n">
         <v>10.2</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="60" t="s">
         <v>84</v>
       </c>
       <c r="K2" s="62" t="n">
         <v>45559</v>
       </c>
-      <c r="L2" s="59" t="n">
+      <c r="L2" s="60" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="n">
+      <c r="A3" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>680</v>
       </c>
       <c r="E3" s="61" t="n">
         <v>2.48263888888889</v>
       </c>
-      <c r="F3" s="59" t="n">
+      <c r="F3" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="G3" s="59" t="n">
+      <c r="G3" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="H3" s="59" t="n">
+      <c r="H3" s="60" t="n">
         <v>11.03</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="60" t="s">
         <v>381</v>
       </c>
       <c r="K3" s="62" t="n">
         <v>45532</v>
       </c>
-      <c r="L3" s="59" t="n">
+      <c r="L3" s="60" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="n">
+      <c r="A4" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="60" t="s">
         <v>681</v>
       </c>
       <c r="E4" s="61" t="n">
         <v>2.46944444444444</v>
       </c>
-      <c r="F4" s="59" t="n">
+      <c r="F4" s="60" t="n">
         <v>210</v>
       </c>
-      <c r="G4" s="59" t="n">
+      <c r="G4" s="60" t="n">
         <v>210</v>
       </c>
-      <c r="H4" s="59" t="n">
+      <c r="H4" s="60" t="n">
         <v>10.08</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="60" t="s">
         <v>90</v>
       </c>
       <c r="K4" s="62" t="n">
         <v>45543</v>
       </c>
-      <c r="L4" s="59" t="n">
+      <c r="L4" s="60" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="n">
+      <c r="A5" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="60" t="s">
         <v>682</v>
       </c>
       <c r="E5" s="61" t="n">
         <v>2.19027777777778</v>
       </c>
-      <c r="F5" s="59" t="n">
+      <c r="F5" s="60" t="n">
         <v>190</v>
       </c>
-      <c r="G5" s="59" t="n">
+      <c r="G5" s="60" t="n">
         <v>190</v>
       </c>
-      <c r="H5" s="59" t="n">
+      <c r="H5" s="60" t="n">
         <v>9.14</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="60" t="s">
         <v>108</v>
       </c>
       <c r="K5" s="62" t="n">
         <v>45508</v>
       </c>
-      <c r="L5" s="59" t="n">
+      <c r="L5" s="60" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="n">
+      <c r="A6" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="60" t="s">
         <v>683</v>
       </c>
       <c r="E6" s="61" t="n">
         <v>2.40208333333333</v>
       </c>
-      <c r="F6" s="59" t="n">
+      <c r="F6" s="60" t="n">
         <v>190</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G6" s="60" t="n">
         <v>190</v>
       </c>
-      <c r="H6" s="59" t="n">
+      <c r="H6" s="60" t="n">
         <v>8.08</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="60" t="s">
         <v>101</v>
       </c>
       <c r="K6" s="62" t="n">
         <v>45559</v>
       </c>
-      <c r="L6" s="59" t="n">
+      <c r="L6" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="n">
+      <c r="A7" s="60" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="60" t="s">
         <v>683</v>
       </c>
       <c r="E7" s="61" t="n">
         <v>2.475</v>
       </c>
-      <c r="F7" s="59" t="n">
+      <c r="F7" s="60" t="n">
         <v>190</v>
       </c>
-      <c r="G7" s="59" t="n">
+      <c r="G7" s="60" t="n">
         <v>190</v>
       </c>
-      <c r="H7" s="59" t="n">
+      <c r="H7" s="60" t="n">
         <v>9.06</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="60" t="s">
         <v>114</v>
       </c>
       <c r="K7" s="62" t="n">
         <v>45532</v>
       </c>
-      <c r="L7" s="59" t="n">
+      <c r="L7" s="60" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59" t="n">
+      <c r="A8" s="60" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="60" t="s">
         <v>684</v>
       </c>
       <c r="E8" s="63" t="n">
         <v>0.0423726851851852</v>
       </c>
-      <c r="F8" s="59" t="n">
+      <c r="F8" s="60" t="n">
         <v>200</v>
       </c>
-      <c r="G8" s="59" t="n">
+      <c r="G8" s="60" t="n">
         <v>180</v>
       </c>
-      <c r="H8" s="59" t="n">
+      <c r="H8" s="60" t="n">
         <v>10.23</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="60" t="s">
         <v>162</v>
       </c>
       <c r="K8" s="62" t="n">
         <v>45563</v>
       </c>
-      <c r="L8" s="59" t="n">
+      <c r="L8" s="60" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59" t="n">
+      <c r="A9" s="60" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="60" t="s">
         <v>685</v>
       </c>
       <c r="E9" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="59" t="n">
+      <c r="F9" s="60" t="n">
         <v>170</v>
       </c>
-      <c r="G9" s="59" t="n">
+      <c r="G9" s="60" t="n">
         <v>170</v>
       </c>
-      <c r="H9" s="59" t="n">
+      <c r="H9" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="60" t="s">
         <v>205</v>
       </c>
       <c r="K9" s="62" t="n">
         <v>45557</v>
       </c>
-      <c r="L9" s="59" t="n">
+      <c r="L9" s="60" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59" t="n">
+      <c r="A10" s="60" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="60" t="s">
         <v>686</v>
       </c>
       <c r="E10" s="61" t="n">
         <v>2.39513888888889</v>
       </c>
-      <c r="F10" s="59" t="n">
+      <c r="F10" s="60" t="n">
         <v>170</v>
       </c>
-      <c r="G10" s="59" t="n">
+      <c r="G10" s="60" t="n">
         <v>170</v>
       </c>
-      <c r="H10" s="59" t="n">
+      <c r="H10" s="60" t="n">
         <v>9.17</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="60" t="s">
         <v>96</v>
       </c>
       <c r="K10" s="62" t="n">
         <v>45544</v>
       </c>
-      <c r="L10" s="59" t="n">
+      <c r="L10" s="60" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="n">
+      <c r="A11" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="60" t="s">
         <v>685</v>
       </c>
       <c r="E11" s="63" t="n">
         <v>0.042337962962963</v>
       </c>
-      <c r="F11" s="59" t="n">
+      <c r="F11" s="60" t="n">
         <v>170</v>
       </c>
-      <c r="G11" s="59" t="n">
+      <c r="G11" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="H11" s="59" t="n">
+      <c r="H11" s="60" t="n">
         <v>9.09</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="60" t="s">
         <v>146</v>
       </c>
       <c r="K11" s="62" t="n">
         <v>45515</v>
       </c>
-      <c r="L11" s="59" t="n">
+      <c r="L11" s="60" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59" t="n">
+      <c r="A12" s="60" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="60" t="s">
         <v>687</v>
       </c>
       <c r="E12" s="61" t="n">
         <v>2.04583333333333</v>
       </c>
-      <c r="F12" s="59" t="n">
+      <c r="F12" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="G12" s="59" t="n">
+      <c r="G12" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="H12" s="59" t="n">
+      <c r="H12" s="60" t="n">
         <v>7.84</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="60" t="s">
         <v>158</v>
       </c>
       <c r="K12" s="62" t="n">
         <v>45563</v>
       </c>
-      <c r="L12" s="59" t="n">
+      <c r="L12" s="60" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59" t="n">
+      <c r="A13" s="60" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="60" t="s">
         <v>688</v>
       </c>
       <c r="E13" s="61" t="n">
         <v>2.12430555555556</v>
       </c>
-      <c r="F13" s="59" t="n">
+      <c r="F13" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="G13" s="59" t="n">
+      <c r="G13" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="H13" s="59" t="n">
+      <c r="H13" s="60" t="n">
         <v>7.92</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="60" t="s">
         <v>169</v>
       </c>
       <c r="K13" s="62" t="n">
         <v>45550</v>
       </c>
-      <c r="L13" s="59" t="n">
+      <c r="L13" s="60" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="59" t="n">
+      <c r="A14" s="60" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="60" t="s">
         <v>688</v>
       </c>
       <c r="E14" s="61" t="n">
         <v>2.20555555555556</v>
       </c>
-      <c r="F14" s="59" t="n">
+      <c r="F14" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="G14" s="59" t="n">
+      <c r="G14" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="H14" s="59" t="n">
+      <c r="H14" s="60" t="n">
         <v>8.12</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="J14" s="59" t="s">
+      <c r="J14" s="60" t="s">
         <v>152</v>
       </c>
       <c r="K14" s="62" t="n">
         <v>45534</v>
       </c>
-      <c r="L14" s="59" t="n">
+      <c r="L14" s="60" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="59" t="n">
+      <c r="A15" s="60" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="60" t="s">
         <v>689</v>
       </c>
       <c r="E15" s="61" t="n">
         <v>2.2125</v>
       </c>
-      <c r="F15" s="59" t="n">
+      <c r="F15" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="G15" s="59" t="n">
+      <c r="G15" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="H15" s="59" t="n">
+      <c r="H15" s="60" t="n">
         <v>8.45</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="59" t="s">
+      <c r="J15" s="60" t="s">
         <v>200</v>
       </c>
       <c r="K15" s="62" t="n">
         <v>45553</v>
       </c>
-      <c r="L15" s="59" t="n">
+      <c r="L15" s="60" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="59" t="n">
+      <c r="A16" s="60" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="60" t="s">
         <v>689</v>
       </c>
       <c r="E16" s="61" t="n">
         <v>2.22847222222222</v>
       </c>
-      <c r="F16" s="59" t="n">
+      <c r="F16" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="G16" s="59" t="n">
+      <c r="G16" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="H16" s="59" t="n">
+      <c r="H16" s="60" t="n">
         <v>8.26</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="60" t="s">
         <v>176</v>
       </c>
       <c r="K16" s="62" t="n">
         <v>45553</v>
       </c>
-      <c r="L16" s="59" t="n">
+      <c r="L16" s="60" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="59" t="n">
+      <c r="A17" s="60" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="60" t="s">
         <v>688</v>
       </c>
       <c r="E17" s="61" t="n">
         <v>2.37916666666667</v>
       </c>
-      <c r="F17" s="59" t="n">
+      <c r="F17" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="G17" s="59" t="n">
+      <c r="G17" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="H17" s="59" t="n">
+      <c r="H17" s="60" t="n">
         <v>7.51</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="J17" s="60" t="s">
         <v>308</v>
       </c>
       <c r="K17" s="62" t="n">
         <v>45517</v>
       </c>
-      <c r="L17" s="59" t="n">
+      <c r="L17" s="60" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="59" t="n">
+      <c r="A18" s="60" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="60" t="s">
         <v>690</v>
       </c>
       <c r="E18" s="61" t="n">
         <v>2.29097222222222</v>
       </c>
-      <c r="F18" s="59" t="n">
+      <c r="F18" s="60" t="n">
         <v>130</v>
       </c>
-      <c r="G18" s="59" t="n">
+      <c r="G18" s="60" t="n">
         <v>130</v>
       </c>
-      <c r="H18" s="59" t="n">
+      <c r="H18" s="60" t="n">
         <v>6.9</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="60" t="s">
         <v>215</v>
       </c>
       <c r="K18" s="62" t="n">
         <v>45547</v>
       </c>
-      <c r="L18" s="59" t="n">
+      <c r="L18" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="59" t="n">
+      <c r="A19" s="60" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="60" t="s">
         <v>690</v>
       </c>
       <c r="E19" s="61" t="n">
         <v>2.29097222222222</v>
       </c>
-      <c r="F19" s="59" t="n">
+      <c r="F19" s="60" t="n">
         <v>130</v>
       </c>
-      <c r="G19" s="59" t="n">
+      <c r="G19" s="60" t="n">
         <v>130</v>
       </c>
-      <c r="H19" s="59" t="n">
+      <c r="H19" s="60" t="n">
         <v>6.9</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="60" t="s">
         <v>193</v>
       </c>
       <c r="K19" s="62" t="n">
         <v>45547</v>
       </c>
-      <c r="L19" s="59" t="n">
+      <c r="L19" s="60" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="59" t="n">
+      <c r="A20" s="60" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="60" t="s">
         <v>691</v>
       </c>
       <c r="E20" s="61" t="n">
         <v>2.32083333333333</v>
       </c>
-      <c r="F20" s="59" t="n">
+      <c r="F20" s="60" t="n">
         <v>130</v>
       </c>
-      <c r="G20" s="59" t="n">
+      <c r="G20" s="60" t="n">
         <v>130</v>
       </c>
-      <c r="H20" s="59" t="n">
+      <c r="H20" s="60" t="n">
         <v>6.86</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="60" t="s">
         <v>231</v>
       </c>
       <c r="K20" s="62" t="n">
         <v>45550</v>
       </c>
-      <c r="L20" s="59" t="n">
+      <c r="L20" s="60" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="59" t="n">
+      <c r="A21" s="60" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="60" t="s">
         <v>690</v>
       </c>
       <c r="E21" s="61" t="n">
         <v>2.32916666666667</v>
       </c>
-      <c r="F21" s="59" t="n">
+      <c r="F21" s="60" t="n">
         <v>130</v>
       </c>
-      <c r="G21" s="59" t="n">
+      <c r="G21" s="60" t="n">
         <v>130</v>
       </c>
-      <c r="H21" s="59" t="n">
+      <c r="H21" s="60" t="n">
         <v>6.64</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="60" t="s">
         <v>141</v>
       </c>
       <c r="K21" s="62" t="n">
         <v>45547</v>
       </c>
-      <c r="L21" s="59" t="n">
+      <c r="L21" s="60" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="59" t="n">
+      <c r="A22" s="60" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="60" t="s">
         <v>692</v>
       </c>
       <c r="E22" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="59" t="n">
+      <c r="F22" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="G22" s="59" t="n">
+      <c r="G22" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="H22" s="59" t="n">
+      <c r="H22" s="60" t="n">
         <v>4.76</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="60" t="s">
         <v>225</v>
       </c>
       <c r="K22" s="62" t="n">
         <v>45522</v>
       </c>
-      <c r="L22" s="59" t="n">
+      <c r="L22" s="60" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="59" t="n">
+      <c r="A23" s="60" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="60" t="s">
         <v>693</v>
       </c>
       <c r="E23" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="59" t="n">
+      <c r="F23" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="G23" s="59" t="n">
+      <c r="G23" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="H23" s="59" t="n">
+      <c r="H23" s="60" t="n">
         <v>6.42</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="60" t="s">
         <v>312</v>
       </c>
       <c r="K23" s="62" t="n">
         <v>45562</v>
       </c>
-      <c r="L23" s="59" t="n">
+      <c r="L23" s="60" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="59" t="n">
+      <c r="A24" s="60" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="60" t="s">
         <v>694</v>
       </c>
       <c r="E24" s="61" t="n">
         <v>2.02083333333333</v>
       </c>
-      <c r="F24" s="59" t="n">
+      <c r="F24" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="G24" s="59" t="n">
+      <c r="G24" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="H24" s="59" t="n">
+      <c r="H24" s="60" t="n">
         <v>6.91</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="60" t="s">
         <v>197</v>
       </c>
       <c r="K24" s="62" t="n">
         <v>45539</v>
       </c>
-      <c r="L24" s="59" t="n">
+      <c r="L24" s="60" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="59" t="n">
+      <c r="A25" s="60" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="60" t="s">
         <v>693</v>
       </c>
       <c r="E25" s="61" t="n">
         <v>2.15763888888889</v>
       </c>
-      <c r="F25" s="59" t="n">
+      <c r="F25" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="59" t="n">
+      <c r="G25" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="H25" s="59" t="n">
+      <c r="H25" s="60" t="n">
         <v>6.33</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="60" t="s">
         <v>221</v>
       </c>
       <c r="K25" s="62" t="n">
         <v>45562</v>
       </c>
-      <c r="L25" s="59" t="n">
+      <c r="L25" s="60" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="59" t="n">
+      <c r="A26" s="60" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="60" t="s">
         <v>694</v>
       </c>
       <c r="E26" s="61" t="n">
         <v>2.19652777777778</v>
       </c>
-      <c r="F26" s="59" t="n">
+      <c r="F26" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="G26" s="59" t="n">
+      <c r="G26" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="H26" s="59" t="n">
+      <c r="H26" s="60" t="n">
         <v>6.24</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="J26" s="60" t="s">
         <v>254</v>
       </c>
       <c r="K26" s="62" t="n">
         <v>45511</v>
       </c>
-      <c r="L26" s="59" t="n">
+      <c r="L26" s="60" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="59" t="n">
+      <c r="A27" s="60" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="60" t="s">
         <v>694</v>
       </c>
       <c r="E27" s="61" t="n">
         <v>2.20625</v>
       </c>
-      <c r="F27" s="59" t="n">
+      <c r="F27" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="G27" s="59" t="n">
+      <c r="G27" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="H27" s="59" t="n">
+      <c r="H27" s="60" t="n">
         <v>6.73</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="J27" s="60" t="s">
         <v>237</v>
       </c>
       <c r="K27" s="62" t="n">
         <v>45511</v>
       </c>
-      <c r="L27" s="59" t="n">
+      <c r="L27" s="60" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="59" t="n">
+      <c r="A28" s="60" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="60" t="s">
         <v>695</v>
       </c>
       <c r="E28" s="61" t="n">
         <v>2.28541666666667</v>
       </c>
-      <c r="F28" s="59" t="n">
+      <c r="F28" s="60" t="n">
         <v>90</v>
       </c>
-      <c r="G28" s="59" t="n">
+      <c r="G28" s="60" t="n">
         <v>90</v>
       </c>
-      <c r="H28" s="59" t="n">
+      <c r="H28" s="60" t="n">
         <v>7.22</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="60" t="s">
         <v>494</v>
       </c>
       <c r="K28" s="62" t="n">
         <v>45510</v>
       </c>
-      <c r="L28" s="59" t="n">
+      <c r="L28" s="60" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="59" t="n">
+      <c r="A29" s="60" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="60" t="s">
         <v>684</v>
       </c>
       <c r="E29" s="63" t="n">
         <v>0.049212962962963</v>
       </c>
-      <c r="F29" s="59" t="n">
+      <c r="F29" s="60" t="n">
         <v>200</v>
       </c>
-      <c r="G29" s="59" t="n">
+      <c r="G29" s="60" t="n">
         <v>90</v>
       </c>
-      <c r="H29" s="59" t="n">
+      <c r="H29" s="60" t="n">
         <v>11.38</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="J29" s="59" t="s">
+      <c r="J29" s="60" t="s">
         <v>474</v>
       </c>
       <c r="K29" s="62" t="n">
         <v>45549</v>
       </c>
-      <c r="L29" s="59" t="n">
+      <c r="L29" s="60" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="59" t="n">
+      <c r="A30" s="60" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="60" t="s">
         <v>595</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="60" t="s">
         <v>596</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="60" t="s">
         <v>696</v>
       </c>
       <c r="E30" s="61" t="n">
         <v>2.3375</v>
       </c>
-      <c r="F30" s="59" t="n">
+      <c r="F30" s="60" t="n">
         <v>70</v>
       </c>
-      <c r="G30" s="59" t="n">
+      <c r="G30" s="60" t="n">
         <v>70</v>
       </c>
-      <c r="H30" s="59" t="n">
+      <c r="H30" s="60" t="n">
         <v>11.83</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="J30" s="59" t="s">
+      <c r="J30" s="60" t="s">
         <v>134</v>
       </c>
       <c r="K30" s="62" t="n">
         <v>45557</v>
       </c>
-      <c r="L30" s="59" t="n">
+      <c r="L30" s="60" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="59" t="n">
+      <c r="A31" s="60" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="60" t="s">
         <v>682</v>
       </c>
       <c r="E31" s="63" t="n">
         <v>0.0499421296296296</v>
       </c>
-      <c r="F31" s="59" t="n">
+      <c r="F31" s="60" t="n">
         <v>190</v>
       </c>
-      <c r="G31" s="59" t="n">
+      <c r="G31" s="60" t="n">
         <v>70</v>
       </c>
-      <c r="H31" s="59" t="n">
+      <c r="H31" s="60" t="n">
         <v>10.65</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="J31" s="59" t="s">
+      <c r="J31" s="60" t="s">
         <v>544</v>
       </c>
       <c r="K31" s="62" t="n">
         <v>45532</v>
       </c>
-      <c r="L31" s="59" t="n">
+      <c r="L31" s="60" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="59" t="n">
+      <c r="A32" s="60" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="60" t="s">
         <v>697</v>
       </c>
       <c r="E32" s="63" t="n">
         <v>0.042650462962963</v>
       </c>
-      <c r="F32" s="59" t="n">
+      <c r="F32" s="60" t="n">
         <v>70</v>
       </c>
-      <c r="G32" s="59" t="n">
+      <c r="G32" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="H32" s="59" t="n">
+      <c r="H32" s="60" t="n">
         <v>6.72</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="I32" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="J32" s="59" t="s">
+      <c r="J32" s="60" t="s">
         <v>361</v>
       </c>
       <c r="K32" s="62" t="n">
         <v>45515</v>
       </c>
-      <c r="L32" s="59" t="n">
+      <c r="L32" s="60" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="59" t="n">
+      <c r="A33" s="60" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="60" t="s">
         <v>698</v>
       </c>
       <c r="E33" s="63" t="n">
         <v>0.0554861111111111</v>
       </c>
-      <c r="F33" s="59" t="n">
+      <c r="F33" s="60" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="59" t="n">
+      <c r="G33" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="59" t="n">
+      <c r="H33" s="60" t="n">
         <v>12.15</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="J33" s="59" t="s">
+      <c r="J33" s="60" t="s">
         <v>127</v>
       </c>
       <c r="K33" s="62" t="n">
         <v>45548</v>
       </c>
-      <c r="L33" s="59" t="n">
+      <c r="L33" s="60" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="59" t="n">
+      <c r="A34" s="60" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="60" t="s">
         <v>699</v>
       </c>
       <c r="E34" s="63" t="n">
         <v>0.0721064814814815</v>
       </c>
-      <c r="F34" s="59" t="n">
+      <c r="F34" s="60" t="n">
         <v>170</v>
       </c>
-      <c r="G34" s="59" t="n">
+      <c r="G34" s="60" t="n">
         <v>-270</v>
       </c>
-      <c r="H34" s="59" t="n">
+      <c r="H34" s="60" t="n">
         <v>9.56</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="J34" s="59" t="s">
+      <c r="J34" s="60" t="s">
         <v>186</v>
       </c>
       <c r="K34" s="62" t="n">
         <v>45525</v>
       </c>
-      <c r="L34" s="59" t="n">
+      <c r="L34" s="60" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="59" t="n">
+      <c r="A35" s="60" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="60" t="s">
         <v>700</v>
       </c>
       <c r="E35" s="63" t="n">
         <v>0.121134259259259</v>
       </c>
-      <c r="F35" s="59" t="n">
+      <c r="F35" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="G35" s="59" t="n">
+      <c r="G35" s="60" t="n">
         <v>-930</v>
       </c>
-      <c r="H35" s="59" t="n">
+      <c r="H35" s="60" t="n">
         <v>12.01</v>
       </c>
-      <c r="I35" s="59" t="s">
+      <c r="I35" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="J35" s="59" t="s">
+      <c r="J35" s="60" t="s">
         <v>316</v>
       </c>
       <c r="K35" s="62" t="n">
         <v>45523</v>
       </c>
-      <c r="L35" s="59" t="n">
+      <c r="L35" s="60" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -20331,2634 +20330,2634 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="1" style="59" width="8.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="13" style="60" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="60" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="13" style="59" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="n">
+    <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="60" t="s">
         <v>602</v>
       </c>
       <c r="E2" s="61" t="n">
         <v>2.26875</v>
       </c>
-      <c r="F2" s="59" t="n">
+      <c r="F2" s="60" t="n">
         <v>250</v>
       </c>
-      <c r="G2" s="59" t="n">
+      <c r="G2" s="60" t="n">
         <v>250</v>
       </c>
-      <c r="H2" s="59" t="n">
+      <c r="H2" s="60" t="n">
         <v>10.95</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="60" t="s">
         <v>90</v>
       </c>
       <c r="K2" s="62" t="n">
         <v>45552</v>
       </c>
-      <c r="L2" s="59" t="n">
+      <c r="L2" s="60" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="n">
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>602</v>
       </c>
       <c r="E3" s="61" t="n">
         <v>2.39236111111111</v>
       </c>
-      <c r="F3" s="59" t="n">
+      <c r="F3" s="60" t="n">
         <v>250</v>
       </c>
-      <c r="G3" s="59" t="n">
+      <c r="G3" s="60" t="n">
         <v>250</v>
       </c>
-      <c r="H3" s="59" t="n">
+      <c r="H3" s="60" t="n">
         <v>11.25</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="60" t="s">
         <v>101</v>
       </c>
       <c r="K3" s="62" t="n">
         <v>45540</v>
       </c>
-      <c r="L3" s="59" t="n">
+      <c r="L3" s="60" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="n">
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="60" t="s">
         <v>603</v>
       </c>
       <c r="E4" s="63" t="n">
         <v>0.0421412037037037</v>
       </c>
-      <c r="F4" s="59" t="n">
+      <c r="F4" s="60" t="n">
         <v>250</v>
       </c>
-      <c r="G4" s="59" t="n">
+      <c r="G4" s="60" t="n">
         <v>240</v>
       </c>
-      <c r="H4" s="59" t="n">
+      <c r="H4" s="60" t="n">
         <v>12.66</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="60" t="s">
         <v>381</v>
       </c>
       <c r="K4" s="62" t="n">
         <v>45525</v>
       </c>
-      <c r="L4" s="59" t="n">
+      <c r="L4" s="60" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="n">
+    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="60" t="s">
         <v>604</v>
       </c>
       <c r="E5" s="61" t="n">
         <v>2.24027777777778</v>
       </c>
-      <c r="F5" s="59" t="n">
+      <c r="F5" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="G5" s="59" t="n">
+      <c r="G5" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="H5" s="59" t="n">
+      <c r="H5" s="60" t="n">
         <v>10.08</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="60" t="s">
         <v>152</v>
       </c>
       <c r="K5" s="62" t="n">
         <v>45568</v>
       </c>
-      <c r="L5" s="59" t="n">
+      <c r="L5" s="60" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="n">
+    <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="60" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="60" t="s">
         <v>604</v>
       </c>
       <c r="E6" s="61" t="n">
         <v>2.33472222222222</v>
       </c>
-      <c r="F6" s="59" t="n">
+      <c r="F6" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G6" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="H6" s="59" t="n">
+      <c r="H6" s="60" t="n">
         <v>11</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="60" t="s">
         <v>84</v>
       </c>
       <c r="K6" s="62" t="n">
         <v>45557</v>
       </c>
-      <c r="L6" s="59" t="n">
+      <c r="L6" s="60" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="n">
+    <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="60" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="60" t="s">
         <v>605</v>
       </c>
       <c r="E7" s="61" t="n">
         <v>2.38888888888889</v>
       </c>
-      <c r="F7" s="59" t="n">
+      <c r="F7" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="G7" s="59" t="n">
+      <c r="G7" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="H7" s="59" t="n">
+      <c r="H7" s="60" t="n">
         <v>9.8</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="60" t="s">
         <v>141</v>
       </c>
       <c r="K7" s="62" t="n">
         <v>45568</v>
       </c>
-      <c r="L7" s="59" t="n">
+      <c r="L7" s="60" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59" t="n">
+    <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="60" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="60" t="s">
         <v>606</v>
       </c>
       <c r="E8" s="61" t="n">
         <v>2.39652777777778</v>
       </c>
-      <c r="F8" s="59" t="n">
+      <c r="F8" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="G8" s="59" t="n">
+      <c r="G8" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="H8" s="59" t="n">
+      <c r="H8" s="60" t="n">
         <v>9.88</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="60" t="s">
         <v>114</v>
       </c>
       <c r="K8" s="62" t="n">
         <v>45564</v>
       </c>
-      <c r="L8" s="59" t="n">
+      <c r="L8" s="60" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59" t="n">
+    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="60" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="60" t="s">
         <v>604</v>
       </c>
       <c r="E9" s="61" t="n">
         <v>2.39722222222222</v>
       </c>
-      <c r="F9" s="59" t="n">
+      <c r="F9" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="G9" s="59" t="n">
+      <c r="G9" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="H9" s="59" t="n">
+      <c r="H9" s="60" t="n">
         <v>10.67</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="60" t="s">
         <v>96</v>
       </c>
       <c r="K9" s="62" t="n">
         <v>45540</v>
       </c>
-      <c r="L9" s="59" t="n">
+      <c r="L9" s="60" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59" t="n">
+    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="60" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="60" t="s">
         <v>606</v>
       </c>
       <c r="E10" s="61" t="n">
         <v>2.40347222222222</v>
       </c>
-      <c r="F10" s="59" t="n">
+      <c r="F10" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="G10" s="59" t="n">
+      <c r="G10" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="H10" s="59" t="n">
+      <c r="H10" s="60" t="n">
         <v>10.6</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="60" t="s">
         <v>146</v>
       </c>
       <c r="K10" s="62" t="n">
         <v>45538</v>
       </c>
-      <c r="L10" s="59" t="n">
+      <c r="L10" s="60" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="n">
+    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="60" t="s">
         <v>378</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="60" t="s">
         <v>606</v>
       </c>
       <c r="E11" s="61" t="n">
         <v>2.41805555555556</v>
       </c>
-      <c r="F11" s="59" t="n">
+      <c r="F11" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="G11" s="59" t="n">
+      <c r="G11" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="H11" s="59" t="n">
+      <c r="H11" s="60" t="n">
         <v>10.15</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="60" t="s">
         <v>361</v>
       </c>
       <c r="K11" s="62" t="n">
         <v>45536</v>
       </c>
-      <c r="L11" s="59" t="n">
+      <c r="L11" s="60" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59" t="n">
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="60" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="60" t="s">
         <v>607</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="60" t="s">
         <v>606</v>
       </c>
       <c r="E12" s="61" t="n">
         <v>2.42013888888889</v>
       </c>
-      <c r="F12" s="59" t="n">
+      <c r="F12" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="G12" s="59" t="n">
+      <c r="G12" s="60" t="n">
         <v>230</v>
       </c>
-      <c r="H12" s="59" t="n">
+      <c r="H12" s="60" t="n">
         <v>10.11</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="60" t="s">
         <v>609</v>
       </c>
       <c r="K12" s="62" t="n">
         <v>45536</v>
       </c>
-      <c r="L12" s="59" t="n">
+      <c r="L12" s="60" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59" t="n">
+    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="60" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="60" t="s">
         <v>610</v>
       </c>
       <c r="E13" s="61" t="n">
         <v>2.42847222222222</v>
       </c>
-      <c r="F13" s="59" t="n">
+      <c r="F13" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="G13" s="59" t="n">
+      <c r="G13" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="H13" s="59" t="n">
+      <c r="H13" s="60" t="n">
         <v>9.89</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="60" t="s">
         <v>200</v>
       </c>
       <c r="K13" s="62" t="n">
         <v>45559</v>
       </c>
-      <c r="L13" s="59" t="n">
+      <c r="L13" s="60" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="59" t="n">
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="60" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="60" t="s">
         <v>610</v>
       </c>
       <c r="E14" s="61" t="n">
         <v>2.45138888888889</v>
       </c>
-      <c r="F14" s="59" t="n">
+      <c r="F14" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="G14" s="59" t="n">
+      <c r="G14" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="H14" s="59" t="n">
+      <c r="H14" s="60" t="n">
         <v>9.97</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="J14" s="59" t="s">
+      <c r="J14" s="60" t="s">
         <v>158</v>
       </c>
       <c r="K14" s="62" t="n">
         <v>45559</v>
       </c>
-      <c r="L14" s="59" t="n">
+      <c r="L14" s="60" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="59" t="n">
+    <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="60" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="60" t="s">
         <v>611</v>
       </c>
       <c r="E15" s="61" t="n">
         <v>2.14097222222222</v>
       </c>
-      <c r="F15" s="59" t="n">
+      <c r="F15" s="60" t="n">
         <v>210</v>
       </c>
-      <c r="G15" s="59" t="n">
+      <c r="G15" s="60" t="n">
         <v>210</v>
       </c>
-      <c r="H15" s="59" t="n">
+      <c r="H15" s="60" t="n">
         <v>9.07</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="J15" s="59" t="s">
+      <c r="J15" s="60" t="s">
         <v>237</v>
       </c>
       <c r="K15" s="62" t="n">
         <v>45532</v>
       </c>
-      <c r="L15" s="59" t="n">
+      <c r="L15" s="60" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="59" t="n">
+    <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="60" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="60" t="s">
         <v>610</v>
       </c>
       <c r="E16" s="63" t="n">
         <v>0.0417476851851852</v>
       </c>
-      <c r="F16" s="59" t="n">
+      <c r="F16" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="G16" s="59" t="n">
+      <c r="G16" s="60" t="n">
         <v>210</v>
       </c>
-      <c r="H16" s="59" t="n">
+      <c r="H16" s="60" t="n">
         <v>9.71</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="60" t="s">
         <v>308</v>
       </c>
       <c r="K16" s="62" t="n">
         <v>45546</v>
       </c>
-      <c r="L16" s="59" t="n">
+      <c r="L16" s="60" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="59" t="n">
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="60" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="60" t="s">
         <v>610</v>
       </c>
       <c r="E17" s="63" t="n">
         <v>0.0422453703703704</v>
       </c>
-      <c r="F17" s="59" t="n">
+      <c r="F17" s="60" t="n">
         <v>220</v>
       </c>
-      <c r="G17" s="59" t="n">
+      <c r="G17" s="60" t="n">
         <v>210</v>
       </c>
-      <c r="H17" s="59" t="n">
+      <c r="H17" s="60" t="n">
         <v>9.77</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="J17" s="60" t="s">
         <v>176</v>
       </c>
       <c r="K17" s="62" t="n">
         <v>45546</v>
       </c>
-      <c r="L17" s="59" t="n">
+      <c r="L17" s="60" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="59" t="n">
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="60" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="60" t="s">
         <v>612</v>
       </c>
       <c r="E18" s="61" t="n">
         <v>2.16319444444444</v>
       </c>
-      <c r="F18" s="59" t="n">
+      <c r="F18" s="60" t="n">
         <v>200</v>
       </c>
-      <c r="G18" s="59" t="n">
+      <c r="G18" s="60" t="n">
         <v>200</v>
       </c>
-      <c r="H18" s="59" t="n">
+      <c r="H18" s="60" t="n">
         <v>9.85</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="60" t="s">
         <v>162</v>
       </c>
       <c r="K18" s="62" t="n">
         <v>45521</v>
       </c>
-      <c r="L18" s="59" t="n">
+      <c r="L18" s="60" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="59" t="n">
+    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="60" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="60" t="s">
         <v>613</v>
       </c>
       <c r="E19" s="61" t="n">
         <v>2.30694444444444</v>
       </c>
-      <c r="F19" s="59" t="n">
+      <c r="F19" s="60" t="n">
         <v>200</v>
       </c>
-      <c r="G19" s="59" t="n">
+      <c r="G19" s="60" t="n">
         <v>200</v>
       </c>
-      <c r="H19" s="59" t="n">
+      <c r="H19" s="60" t="n">
         <v>9.31</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="60" t="s">
         <v>242</v>
       </c>
       <c r="K19" s="62" t="n">
         <v>45517</v>
       </c>
-      <c r="L19" s="59" t="n">
+      <c r="L19" s="60" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="59" t="n">
+    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="60" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="60" t="s">
         <v>614</v>
       </c>
       <c r="E20" s="61" t="n">
         <v>2.3625</v>
       </c>
-      <c r="F20" s="59" t="n">
+      <c r="F20" s="60" t="n">
         <v>200</v>
       </c>
-      <c r="G20" s="59" t="n">
+      <c r="G20" s="60" t="n">
         <v>200</v>
       </c>
-      <c r="H20" s="59" t="n">
+      <c r="H20" s="60" t="n">
         <v>9.28</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="60" t="s">
         <v>494</v>
       </c>
       <c r="K20" s="62" t="n">
         <v>45517</v>
       </c>
-      <c r="L20" s="59" t="n">
+      <c r="L20" s="60" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="59" t="n">
+    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="60" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="60" t="s">
         <v>615</v>
       </c>
       <c r="E21" s="61" t="n">
         <v>1.98611111111111</v>
       </c>
-      <c r="F21" s="59" t="n">
+      <c r="F21" s="60" t="n">
         <v>190</v>
       </c>
-      <c r="G21" s="59" t="n">
+      <c r="G21" s="60" t="n">
         <v>190</v>
       </c>
-      <c r="H21" s="59" t="n">
+      <c r="H21" s="60" t="n">
         <v>8.1</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="60" t="s">
         <v>197</v>
       </c>
       <c r="K21" s="62" t="n">
         <v>45538</v>
       </c>
-      <c r="L21" s="59" t="n">
+      <c r="L21" s="60" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="59" t="n">
+    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="60" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="60" t="s">
         <v>616</v>
       </c>
       <c r="E22" s="61" t="n">
         <v>2.45763888888889</v>
       </c>
-      <c r="F22" s="59" t="n">
+      <c r="F22" s="60" t="n">
         <v>190</v>
       </c>
-      <c r="G22" s="59" t="n">
+      <c r="G22" s="60" t="n">
         <v>190</v>
       </c>
-      <c r="H22" s="59" t="n">
+      <c r="H22" s="60" t="n">
         <v>9.77</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="60" t="s">
         <v>530</v>
       </c>
       <c r="K22" s="62" t="n">
         <v>45555</v>
       </c>
-      <c r="L22" s="59" t="n">
+      <c r="L22" s="60" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="59" t="n">
+    <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="60" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="60" t="s">
         <v>617</v>
       </c>
       <c r="E23" s="61" t="n">
         <v>2.07569444444444</v>
       </c>
-      <c r="F23" s="59" t="n">
+      <c r="F23" s="60" t="n">
         <v>180</v>
       </c>
-      <c r="G23" s="59" t="n">
+      <c r="G23" s="60" t="n">
         <v>180</v>
       </c>
-      <c r="H23" s="59" t="n">
+      <c r="H23" s="60" t="n">
         <v>8.26</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="60" t="s">
         <v>169</v>
       </c>
       <c r="K23" s="62" t="n">
         <v>45559</v>
       </c>
-      <c r="L23" s="59" t="n">
+      <c r="L23" s="60" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="59" t="n">
+    <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="60" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="60" t="s">
         <v>618</v>
       </c>
       <c r="E24" s="61" t="n">
         <v>2.18333333333333</v>
       </c>
-      <c r="F24" s="59" t="n">
+      <c r="F24" s="60" t="n">
         <v>180</v>
       </c>
-      <c r="G24" s="59" t="n">
+      <c r="G24" s="60" t="n">
         <v>180</v>
       </c>
-      <c r="H24" s="59" t="n">
+      <c r="H24" s="60" t="n">
         <v>8.3</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="60" t="s">
         <v>250</v>
       </c>
       <c r="K24" s="62" t="n">
         <v>45513</v>
       </c>
-      <c r="L24" s="59" t="n">
+      <c r="L24" s="60" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="59" t="n">
+    <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="60" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="60" t="s">
         <v>619</v>
       </c>
       <c r="E25" s="61" t="n">
         <v>2.32430555555556</v>
       </c>
-      <c r="F25" s="59" t="n">
+      <c r="F25" s="60" t="n">
         <v>180</v>
       </c>
-      <c r="G25" s="59" t="n">
+      <c r="G25" s="60" t="n">
         <v>180</v>
       </c>
-      <c r="H25" s="59" t="n">
+      <c r="H25" s="60" t="n">
         <v>9.15</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="60" t="s">
         <v>254</v>
       </c>
       <c r="K25" s="62" t="n">
         <v>45517</v>
       </c>
-      <c r="L25" s="59" t="n">
+      <c r="L25" s="60" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="59" t="n">
+    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="60" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="60" t="s">
         <v>620</v>
       </c>
       <c r="E26" s="63" t="n">
         <v>0.0425115740740741</v>
       </c>
-      <c r="F26" s="59" t="n">
+      <c r="F26" s="60" t="n">
         <v>200</v>
       </c>
-      <c r="G26" s="59" t="n">
+      <c r="G26" s="60" t="n">
         <v>180</v>
       </c>
-      <c r="H26" s="59" t="n">
+      <c r="H26" s="60" t="n">
         <v>9.62</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="J26" s="60" t="s">
         <v>127</v>
       </c>
       <c r="K26" s="62" t="n">
         <v>45530</v>
       </c>
-      <c r="L26" s="59" t="n">
+      <c r="L26" s="60" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="59" t="n">
+    <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="60" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="60" t="s">
         <v>621</v>
       </c>
       <c r="E27" s="61" t="n">
         <v>1.82291666666667</v>
       </c>
-      <c r="F27" s="59" t="n">
+      <c r="F27" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="G27" s="59" t="n">
+      <c r="G27" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="H27" s="59" t="n">
+      <c r="H27" s="60" t="n">
         <v>7.32</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="J27" s="60" t="s">
         <v>231</v>
       </c>
       <c r="K27" s="62" t="n">
         <v>45535</v>
       </c>
-      <c r="L27" s="59" t="n">
+      <c r="L27" s="60" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="59" t="n">
+    <row r="28" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="60" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="60" t="s">
         <v>621</v>
       </c>
       <c r="E28" s="61" t="n">
         <v>1.89930555555556</v>
       </c>
-      <c r="F28" s="59" t="n">
+      <c r="F28" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="G28" s="59" t="n">
+      <c r="G28" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="H28" s="59" t="n">
+      <c r="H28" s="60" t="n">
         <v>6.58</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="60" t="s">
         <v>193</v>
       </c>
       <c r="K28" s="62" t="n">
         <v>45563</v>
       </c>
-      <c r="L28" s="59" t="n">
+      <c r="L28" s="60" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="59" t="n">
+    <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="60" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="60" t="s">
         <v>622</v>
       </c>
       <c r="E29" s="61" t="n">
         <v>1.92361111111111</v>
       </c>
-      <c r="F29" s="59" t="n">
+      <c r="F29" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="G29" s="59" t="n">
+      <c r="G29" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="H29" s="59" t="n">
+      <c r="H29" s="60" t="n">
         <v>7.24</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="J29" s="59" t="s">
+      <c r="J29" s="60" t="s">
         <v>215</v>
       </c>
       <c r="K29" s="62" t="n">
         <v>45554</v>
       </c>
-      <c r="L29" s="59" t="n">
+      <c r="L29" s="60" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="59" t="n">
+    <row r="30" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="60" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="60" t="s">
         <v>622</v>
       </c>
       <c r="E30" s="61" t="n">
         <v>1.95833333333333</v>
       </c>
-      <c r="F30" s="59" t="n">
+      <c r="F30" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="G30" s="59" t="n">
+      <c r="G30" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="H30" s="59" t="n">
+      <c r="H30" s="60" t="n">
         <v>7.38</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="J30" s="59" t="s">
+      <c r="J30" s="60" t="s">
         <v>221</v>
       </c>
       <c r="K30" s="62" t="n">
         <v>45554</v>
       </c>
-      <c r="L30" s="59" t="n">
+      <c r="L30" s="60" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="59" t="n">
+    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="60" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="60" t="s">
         <v>621</v>
       </c>
       <c r="E31" s="61" t="n">
         <v>2.025</v>
       </c>
-      <c r="F31" s="59" t="n">
+      <c r="F31" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="G31" s="59" t="n">
+      <c r="G31" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="H31" s="59" t="n">
+      <c r="H31" s="60" t="n">
         <v>6.56</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="J31" s="59" t="s">
+      <c r="J31" s="60" t="s">
         <v>312</v>
       </c>
       <c r="K31" s="62" t="n">
         <v>45557</v>
       </c>
-      <c r="L31" s="59" t="n">
+      <c r="L31" s="60" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="59" t="n">
+    <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="60" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="60" t="s">
         <v>622</v>
       </c>
       <c r="E32" s="61" t="n">
         <v>2.09791666666667</v>
       </c>
-      <c r="F32" s="59" t="n">
+      <c r="F32" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="G32" s="59" t="n">
+      <c r="G32" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="H32" s="59" t="n">
+      <c r="H32" s="60" t="n">
         <v>7.06</v>
       </c>
-      <c r="I32" s="59" t="s">
+      <c r="I32" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="J32" s="59" t="s">
+      <c r="J32" s="60" t="s">
         <v>321</v>
       </c>
       <c r="K32" s="62" t="n">
         <v>45543</v>
       </c>
-      <c r="L32" s="59" t="n">
+      <c r="L32" s="60" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="59" t="n">
+    <row r="33" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="60" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="60" t="s">
         <v>621</v>
       </c>
       <c r="E33" s="61" t="n">
         <v>2.20347222222222</v>
       </c>
-      <c r="F33" s="59" t="n">
+      <c r="F33" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="G33" s="59" t="n">
+      <c r="G33" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="H33" s="59" t="n">
+      <c r="H33" s="60" t="n">
         <v>7.34</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="J33" s="59" t="s">
+      <c r="J33" s="60" t="s">
         <v>544</v>
       </c>
       <c r="K33" s="62" t="n">
         <v>45547</v>
       </c>
-      <c r="L33" s="59" t="n">
+      <c r="L33" s="60" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="59" t="n">
+    <row r="34" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="60" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="60" t="s">
         <v>623</v>
       </c>
       <c r="E34" s="61" t="n">
         <v>1.72152777777778</v>
       </c>
-      <c r="F34" s="59" t="n">
+      <c r="F34" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G34" s="59" t="n">
+      <c r="G34" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H34" s="59" t="n">
+      <c r="H34" s="60" t="n">
         <v>6.25</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="J34" s="59" t="s">
+      <c r="J34" s="60" t="s">
         <v>624</v>
       </c>
       <c r="K34" s="62" t="n">
         <v>45548</v>
       </c>
-      <c r="L34" s="59" t="n">
+      <c r="L34" s="60" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="59" t="n">
+    <row r="35" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="60" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="60" t="s">
         <v>623</v>
       </c>
       <c r="E35" s="61" t="n">
         <v>1.73958333333333</v>
       </c>
-      <c r="F35" s="59" t="n">
+      <c r="F35" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G35" s="59" t="n">
+      <c r="G35" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H35" s="59" t="n">
+      <c r="H35" s="60" t="n">
         <v>6.27</v>
       </c>
-      <c r="I35" s="59" t="s">
+      <c r="I35" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="J35" s="59" t="s">
+      <c r="J35" s="60" t="s">
         <v>333</v>
       </c>
       <c r="K35" s="62" t="n">
         <v>45548</v>
       </c>
-      <c r="L35" s="59" t="n">
+      <c r="L35" s="60" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="59" t="n">
+    <row r="36" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="60" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="60" t="s">
         <v>627</v>
       </c>
       <c r="E36" s="61" t="n">
         <v>1.86805555555556</v>
       </c>
-      <c r="F36" s="59" t="n">
+      <c r="F36" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G36" s="59" t="n">
+      <c r="G36" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H36" s="59" t="n">
+      <c r="H36" s="60" t="n">
         <v>5.44</v>
       </c>
-      <c r="I36" s="59" t="s">
+      <c r="I36" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="J36" s="59" t="s">
+      <c r="J36" s="60" t="s">
         <v>348</v>
       </c>
       <c r="K36" s="62" t="n">
         <v>45557</v>
       </c>
-      <c r="L36" s="59" t="n">
+      <c r="L36" s="60" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="59" t="n">
+    <row r="37" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="60" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="60" t="s">
         <v>628</v>
       </c>
       <c r="E37" s="61" t="n">
         <v>1.94791666666667</v>
       </c>
-      <c r="F37" s="59" t="n">
+      <c r="F37" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G37" s="59" t="n">
+      <c r="G37" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H37" s="59" t="n">
+      <c r="H37" s="60" t="n">
         <v>6.59</v>
       </c>
-      <c r="I37" s="59" t="s">
+      <c r="I37" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="J37" s="59" t="s">
+      <c r="J37" s="60" t="s">
         <v>629</v>
       </c>
       <c r="K37" s="62" t="n">
         <v>45519</v>
       </c>
-      <c r="L37" s="59" t="n">
+      <c r="L37" s="60" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="59" t="n">
+    <row r="38" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="60" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="60" t="s">
         <v>628</v>
       </c>
       <c r="E38" s="61" t="n">
         <v>1.97569444444444</v>
       </c>
-      <c r="F38" s="59" t="n">
+      <c r="F38" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G38" s="59" t="n">
+      <c r="G38" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H38" s="59" t="n">
+      <c r="H38" s="60" t="n">
         <v>7.33</v>
       </c>
-      <c r="I38" s="59" t="s">
+      <c r="I38" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="J38" s="59" t="s">
+      <c r="J38" s="60" t="s">
         <v>630</v>
       </c>
       <c r="K38" s="62" t="n">
         <v>45517</v>
       </c>
-      <c r="L38" s="59" t="n">
+      <c r="L38" s="60" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="59" t="n">
+    <row r="39" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="60" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="60" t="s">
         <v>631</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="60" t="s">
         <v>632</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="60" t="s">
         <v>628</v>
       </c>
       <c r="E39" s="61" t="n">
         <v>1.97847222222222</v>
       </c>
-      <c r="F39" s="59" t="n">
+      <c r="F39" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G39" s="59" t="n">
+      <c r="G39" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H39" s="59" t="n">
+      <c r="H39" s="60" t="n">
         <v>8.08</v>
       </c>
-      <c r="I39" s="59" t="s">
+      <c r="I39" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="J39" s="59" t="s">
+      <c r="J39" s="60" t="s">
         <v>633</v>
       </c>
       <c r="K39" s="62" t="n">
         <v>45517</v>
       </c>
-      <c r="L39" s="59" t="n">
+      <c r="L39" s="60" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="59" t="n">
+    <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="60" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="60" t="s">
         <v>628</v>
       </c>
       <c r="E40" s="61" t="n">
         <v>2.04652777777778</v>
       </c>
-      <c r="F40" s="59" t="n">
+      <c r="F40" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G40" s="59" t="n">
+      <c r="G40" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H40" s="59" t="n">
+      <c r="H40" s="60" t="n">
         <v>7.34</v>
       </c>
-      <c r="I40" s="59" t="s">
+      <c r="I40" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="J40" s="59" t="s">
+      <c r="J40" s="60" t="s">
         <v>634</v>
       </c>
       <c r="K40" s="62" t="n">
         <v>45516</v>
       </c>
-      <c r="L40" s="59" t="n">
+      <c r="L40" s="60" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="59" t="n">
+    <row r="41" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="60" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="60" t="s">
         <v>628</v>
       </c>
       <c r="E41" s="61" t="n">
         <v>2.04652777777778</v>
       </c>
-      <c r="F41" s="59" t="n">
+      <c r="F41" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G41" s="59" t="n">
+      <c r="G41" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H41" s="59" t="n">
+      <c r="H41" s="60" t="n">
         <v>6.98</v>
       </c>
-      <c r="I41" s="59" t="s">
+      <c r="I41" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="J41" s="59" t="s">
+      <c r="J41" s="60" t="s">
         <v>291</v>
       </c>
       <c r="K41" s="62" t="n">
         <v>45516</v>
       </c>
-      <c r="L41" s="59" t="n">
+      <c r="L41" s="60" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="59" t="n">
+    <row r="42" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="60" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="60" t="s">
         <v>635</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="60" t="s">
         <v>636</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="60" t="s">
         <v>637</v>
       </c>
       <c r="E42" s="61" t="n">
         <v>2.26180555555556</v>
       </c>
-      <c r="F42" s="59" t="n">
+      <c r="F42" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G42" s="59" t="n">
+      <c r="G42" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H42" s="59" t="n">
+      <c r="H42" s="60" t="n">
         <v>6.82</v>
       </c>
-      <c r="I42" s="59" t="s">
+      <c r="I42" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="J42" s="59" t="s">
+      <c r="J42" s="60" t="s">
         <v>638</v>
       </c>
       <c r="K42" s="62" t="n">
         <v>45532</v>
       </c>
-      <c r="L42" s="59" t="n">
+      <c r="L42" s="60" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="59" t="n">
+    <row r="43" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="60" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="60" t="s">
         <v>623</v>
       </c>
       <c r="E43" s="61" t="n">
         <v>2.3625</v>
       </c>
-      <c r="F43" s="59" t="n">
+      <c r="F43" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G43" s="59" t="n">
+      <c r="G43" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H43" s="59" t="n">
+      <c r="H43" s="60" t="n">
         <v>8.92</v>
       </c>
-      <c r="I43" s="59" t="s">
+      <c r="I43" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="J43" s="59" t="s">
+      <c r="J43" s="60" t="s">
         <v>134</v>
       </c>
       <c r="K43" s="62" t="n">
         <v>45533</v>
       </c>
-      <c r="L43" s="59" t="n">
+      <c r="L43" s="60" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="59" t="n">
+    <row r="44" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="60" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="60" t="s">
         <v>639</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="60" t="s">
         <v>640</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="60" t="s">
         <v>637</v>
       </c>
       <c r="E44" s="61" t="n">
         <v>2.36666666666667</v>
       </c>
-      <c r="F44" s="59" t="n">
+      <c r="F44" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G44" s="59" t="n">
+      <c r="G44" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H44" s="59" t="n">
+      <c r="H44" s="60" t="n">
         <v>6.75</v>
       </c>
-      <c r="I44" s="59" t="s">
+      <c r="I44" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="J44" s="59" t="s">
+      <c r="J44" s="60" t="s">
         <v>272</v>
       </c>
       <c r="K44" s="62" t="n">
         <v>45532</v>
       </c>
-      <c r="L44" s="59" t="n">
+      <c r="L44" s="60" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="59" t="n">
+    <row r="45" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="60" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="60" t="s">
         <v>641</v>
       </c>
       <c r="E45" s="61" t="n">
         <v>2.48680555555556</v>
       </c>
-      <c r="F45" s="59" t="n">
+      <c r="F45" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="G45" s="59" t="n">
+      <c r="G45" s="60" t="n">
         <v>150</v>
       </c>
-      <c r="H45" s="59" t="n">
+      <c r="H45" s="60" t="n">
         <v>8.73</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="J45" s="59" t="s">
+      <c r="J45" s="60" t="s">
         <v>287</v>
       </c>
       <c r="K45" s="62" t="n">
         <v>45525</v>
       </c>
-      <c r="L45" s="59" t="n">
+      <c r="L45" s="60" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="59" t="n">
+    <row r="46" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="60" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="60" t="s">
         <v>642</v>
       </c>
       <c r="E46" s="61" t="n">
         <v>2.22986111111111</v>
       </c>
-      <c r="F46" s="59" t="n">
+      <c r="F46" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="G46" s="59" t="n">
+      <c r="G46" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="H46" s="59" t="n">
+      <c r="H46" s="60" t="n">
         <v>7.35</v>
       </c>
-      <c r="I46" s="59" t="s">
+      <c r="I46" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="J46" s="59" t="s">
+      <c r="J46" s="60" t="s">
         <v>643</v>
       </c>
       <c r="K46" s="62" t="n">
         <v>45507</v>
       </c>
-      <c r="L46" s="59" t="n">
+      <c r="L46" s="60" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="59" t="n">
+    <row r="47" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="60" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="60" t="s">
         <v>644</v>
       </c>
       <c r="E47" s="61" t="n">
         <v>2.35416666666667</v>
       </c>
-      <c r="F47" s="59" t="n">
+      <c r="F47" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="G47" s="59" t="n">
+      <c r="G47" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="H47" s="59" t="n">
+      <c r="H47" s="60" t="n">
         <v>6.87</v>
       </c>
-      <c r="I47" s="59" t="s">
+      <c r="I47" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="J47" s="59" t="s">
+      <c r="J47" s="60" t="s">
         <v>302</v>
       </c>
       <c r="K47" s="62" t="n">
         <v>45564</v>
       </c>
-      <c r="L47" s="59" t="n">
+      <c r="L47" s="60" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="59" t="n">
+    <row r="48" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="60" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="60" t="s">
         <v>645</v>
       </c>
       <c r="E48" s="61" t="n">
         <v>1.82847222222222</v>
       </c>
-      <c r="F48" s="59" t="n">
+      <c r="F48" s="60" t="n">
         <v>130</v>
       </c>
-      <c r="G48" s="59" t="n">
+      <c r="G48" s="60" t="n">
         <v>130</v>
       </c>
-      <c r="H48" s="59" t="n">
+      <c r="H48" s="60" t="n">
         <v>8.24</v>
       </c>
-      <c r="I48" s="59" t="s">
+      <c r="I48" s="60" t="s">
         <v>373</v>
       </c>
-      <c r="J48" s="59" t="s">
+      <c r="J48" s="60" t="s">
         <v>130</v>
       </c>
       <c r="K48" s="62" t="n">
         <v>45552</v>
       </c>
-      <c r="L48" s="59" t="n">
+      <c r="L48" s="60" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="59" t="n">
+    <row r="49" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="60" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="60" t="s">
         <v>646</v>
       </c>
       <c r="E49" s="63" t="n">
         <v>0.044525462962963</v>
       </c>
-      <c r="F49" s="59" t="n">
+      <c r="F49" s="60" t="n">
         <v>170</v>
       </c>
-      <c r="G49" s="59" t="n">
+      <c r="G49" s="60" t="n">
         <v>120</v>
       </c>
-      <c r="H49" s="59" t="n">
+      <c r="H49" s="60" t="n">
         <v>10.32</v>
       </c>
-      <c r="I49" s="59" t="s">
+      <c r="I49" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="J49" s="59" t="s">
+      <c r="J49" s="60" t="s">
         <v>474</v>
       </c>
       <c r="K49" s="62" t="n">
         <v>45508</v>
       </c>
-      <c r="L49" s="59" t="n">
+      <c r="L49" s="60" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="59" t="n">
+    <row r="50" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="60" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="60" t="s">
         <v>647</v>
       </c>
       <c r="E50" s="61" t="n">
         <v>2.04791666666667</v>
       </c>
-      <c r="F50" s="59" t="n">
+      <c r="F50" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="G50" s="59" t="n">
+      <c r="G50" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="H50" s="59" t="n">
+      <c r="H50" s="60" t="n">
         <v>6.39</v>
       </c>
-      <c r="I50" s="59" t="s">
+      <c r="I50" s="60" t="s">
         <v>493</v>
       </c>
-      <c r="J50" s="59" t="s">
+      <c r="J50" s="60" t="s">
         <v>648</v>
       </c>
       <c r="K50" s="62" t="n">
         <v>45533</v>
       </c>
-      <c r="L50" s="59" t="n">
+      <c r="L50" s="60" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="59" t="n">
+    <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="60" t="s">
         <v>650</v>
       </c>
       <c r="E51" s="63" t="n">
         <v>0.0431365740740741</v>
       </c>
-      <c r="F51" s="59" t="n">
+      <c r="F51" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="G51" s="59" t="n">
+      <c r="G51" s="60" t="n">
         <v>110</v>
       </c>
-      <c r="H51" s="59" t="n">
+      <c r="H51" s="60" t="n">
         <v>10.91</v>
       </c>
-      <c r="I51" s="59" t="s">
+      <c r="I51" s="60" t="s">
         <v>496</v>
       </c>
-      <c r="J51" s="59" t="s">
+      <c r="J51" s="60" t="s">
         <v>516</v>
       </c>
       <c r="K51" s="62" t="n">
         <v>45530</v>
       </c>
-      <c r="L51" s="59" t="n">
+      <c r="L51" s="60" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="59" t="n">
+    <row r="52" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="60" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="60" t="s">
         <v>651</v>
       </c>
       <c r="E52" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="59" t="n">
+      <c r="F52" s="60" t="n">
         <v>100</v>
       </c>
-      <c r="G52" s="59" t="n">
+      <c r="G52" s="60" t="n">
         <v>100</v>
       </c>
-      <c r="H52" s="59" t="n">
+      <c r="H52" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="I52" s="59" t="s">
+      <c r="I52" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="J52" s="59" t="s">
+      <c r="J52" s="60" t="s">
         <v>652</v>
       </c>
       <c r="K52" s="62" t="n">
         <v>45520</v>
       </c>
-      <c r="L52" s="59" t="n">
+      <c r="L52" s="60" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="59" t="n">
+    <row r="53" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="60" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="60" t="s">
         <v>651</v>
       </c>
       <c r="E53" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="59" t="n">
+      <c r="F53" s="60" t="n">
         <v>100</v>
       </c>
-      <c r="G53" s="59" t="n">
+      <c r="G53" s="60" t="n">
         <v>100</v>
       </c>
-      <c r="H53" s="59" t="n">
+      <c r="H53" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="I53" s="59" t="s">
+      <c r="I53" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="J53" s="59" t="s">
+      <c r="J53" s="60" t="s">
         <v>652</v>
       </c>
       <c r="K53" s="62" t="n">
         <v>45520</v>
       </c>
-      <c r="L53" s="59" t="n">
+      <c r="L53" s="60" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="59" t="n">
+    <row r="54" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="60" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="60" t="s">
         <v>653</v>
       </c>
       <c r="E54" s="61" t="n">
         <v>1.75069444444444</v>
       </c>
-      <c r="F54" s="59" t="n">
+      <c r="F54" s="60" t="n">
         <v>90</v>
       </c>
-      <c r="G54" s="59" t="n">
+      <c r="G54" s="60" t="n">
         <v>90</v>
       </c>
-      <c r="H54" s="59" t="n">
+      <c r="H54" s="60" t="n">
         <v>4.21</v>
       </c>
-      <c r="I54" s="59" t="s">
+      <c r="I54" s="60" t="s">
         <v>499</v>
       </c>
-      <c r="J54" s="59" t="s">
+      <c r="J54" s="60" t="s">
         <v>497</v>
       </c>
       <c r="K54" s="62" t="n">
         <v>45519</v>
       </c>
-      <c r="L54" s="59" t="n">
+      <c r="L54" s="60" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="59" t="n">
+    <row r="55" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="60" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="60" t="s">
         <v>654</v>
       </c>
       <c r="E55" s="61" t="n">
         <v>2.44305555555556</v>
       </c>
-      <c r="F55" s="59" t="n">
+      <c r="F55" s="60" t="n">
         <v>80</v>
       </c>
-      <c r="G55" s="59" t="n">
+      <c r="G55" s="60" t="n">
         <v>80</v>
       </c>
-      <c r="H55" s="59" t="n">
+      <c r="H55" s="60" t="n">
         <v>7.27</v>
       </c>
-      <c r="I55" s="59" t="s">
+      <c r="I55" s="60" t="s">
         <v>502</v>
       </c>
-      <c r="J55" s="59" t="s">
+      <c r="J55" s="60" t="s">
         <v>537</v>
       </c>
       <c r="K55" s="62" t="n">
         <v>45555</v>
       </c>
-      <c r="L55" s="59" t="n">
+      <c r="L55" s="60" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="59" t="n">
+    <row r="56" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="60" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="60" t="s">
         <v>655</v>
       </c>
       <c r="E56" s="63" t="n">
         <v>0.0428125</v>
       </c>
-      <c r="F56" s="59" t="n">
+      <c r="F56" s="60" t="n">
         <v>90</v>
       </c>
-      <c r="G56" s="59" t="n">
+      <c r="G56" s="60" t="n">
         <v>70</v>
       </c>
-      <c r="H56" s="59" t="n">
+      <c r="H56" s="60" t="n">
         <v>7.29</v>
       </c>
-      <c r="I56" s="59" t="s">
+      <c r="I56" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="J56" s="59" t="s">
+      <c r="J56" s="60" t="s">
         <v>182</v>
       </c>
       <c r="K56" s="62" t="n">
         <v>45554</v>
       </c>
-      <c r="L56" s="59" t="n">
+      <c r="L56" s="60" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="59" t="n">
+    <row r="57" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="60" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="60" t="s">
         <v>656</v>
       </c>
       <c r="E57" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F57" s="59" t="n">
+      <c r="F57" s="60" t="n">
         <v>60</v>
       </c>
-      <c r="G57" s="59" t="n">
+      <c r="G57" s="60" t="n">
         <v>60</v>
       </c>
-      <c r="H57" s="59" t="n">
+      <c r="H57" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="I57" s="59" t="s">
+      <c r="I57" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="J57" s="59" t="s">
+      <c r="J57" s="60" t="s">
         <v>652</v>
       </c>
       <c r="K57" s="62" t="n">
         <v>45534</v>
       </c>
-      <c r="L57" s="59" t="n">
+      <c r="L57" s="60" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="59" t="n">
+    <row r="58" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="60" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="60" t="s">
         <v>657</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="60" t="s">
         <v>658</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="60" t="s">
         <v>659</v>
       </c>
       <c r="E58" s="64" t="n">
         <v>0.684027777777778</v>
       </c>
-      <c r="F58" s="59" t="n">
+      <c r="F58" s="60" t="n">
         <v>60</v>
       </c>
-      <c r="G58" s="59" t="n">
+      <c r="G58" s="60" t="n">
         <v>60</v>
       </c>
-      <c r="H58" s="59" t="n">
+      <c r="H58" s="60" t="n">
         <v>3.14</v>
       </c>
-      <c r="I58" s="59" t="s">
+      <c r="I58" s="60" t="s">
         <v>660</v>
       </c>
-      <c r="J58" s="59" t="s">
+      <c r="J58" s="60" t="s">
         <v>518</v>
       </c>
       <c r="K58" s="62" t="n">
         <v>45532</v>
       </c>
-      <c r="L58" s="59" t="n">
+      <c r="L58" s="60" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="59" t="n">
+    <row r="59" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="60" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="60" t="s">
         <v>661</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="60" t="s">
         <v>662</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="60" t="s">
         <v>663</v>
       </c>
       <c r="E59" s="64" t="n">
         <v>0.70625</v>
       </c>
-      <c r="F59" s="59" t="n">
+      <c r="F59" s="60" t="n">
         <v>60</v>
       </c>
-      <c r="G59" s="59" t="n">
+      <c r="G59" s="60" t="n">
         <v>60</v>
       </c>
-      <c r="H59" s="59" t="n">
+      <c r="H59" s="60" t="n">
         <v>3.02</v>
       </c>
-      <c r="I59" s="59" t="s">
+      <c r="I59" s="60" t="s">
         <v>664</v>
       </c>
-      <c r="J59" s="59" t="s">
+      <c r="J59" s="60" t="s">
         <v>546</v>
       </c>
       <c r="K59" s="62" t="n">
         <v>45532</v>
       </c>
-      <c r="L59" s="59" t="n">
+      <c r="L59" s="60" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="59" t="n">
+    <row r="60" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="60" t="s">
         <v>665</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="60" t="s">
         <v>666</v>
       </c>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="60" t="s">
         <v>656</v>
       </c>
       <c r="E60" s="61" t="n">
         <v>2.26736111111111</v>
       </c>
-      <c r="F60" s="59" t="n">
+      <c r="F60" s="60" t="n">
         <v>60</v>
       </c>
-      <c r="G60" s="59" t="n">
+      <c r="G60" s="60" t="n">
         <v>60</v>
       </c>
-      <c r="H60" s="59" t="n">
+      <c r="H60" s="60" t="n">
         <v>5.45</v>
       </c>
-      <c r="I60" s="59" t="s">
+      <c r="I60" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="J60" s="59" t="s">
+      <c r="J60" s="60" t="s">
         <v>225</v>
       </c>
       <c r="K60" s="62" t="n">
         <v>45534</v>
       </c>
-      <c r="L60" s="59" t="n">
+      <c r="L60" s="60" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="59" t="n">
+    <row r="61" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="60" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="D61" s="59" t="s">
+      <c r="D61" s="60" t="s">
         <v>667</v>
       </c>
       <c r="E61" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F61" s="59" t="n">
+      <c r="F61" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="G61" s="59" t="n">
+      <c r="G61" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="H61" s="59" t="n">
+      <c r="H61" s="60" t="n">
         <v>4.11</v>
       </c>
-      <c r="I61" s="59" t="s">
+      <c r="I61" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="J61" s="59" t="s">
+      <c r="J61" s="60" t="s">
         <v>652</v>
       </c>
       <c r="K61" s="62" t="n">
         <v>45534</v>
       </c>
-      <c r="L61" s="59" t="n">
+      <c r="L61" s="60" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="59" t="n">
+    <row r="62" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="60" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="60" t="s">
         <v>665</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="60" t="s">
         <v>666</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="60" t="s">
         <v>667</v>
       </c>
       <c r="E62" s="61" t="n">
         <v>1.70833333333333</v>
       </c>
-      <c r="F62" s="59" t="n">
+      <c r="F62" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="G62" s="59" t="n">
+      <c r="G62" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="H62" s="59" t="n">
+      <c r="H62" s="60" t="n">
         <v>4.05</v>
       </c>
-      <c r="I62" s="59" t="s">
+      <c r="I62" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="J62" s="59" t="s">
+      <c r="J62" s="60" t="s">
         <v>277</v>
       </c>
       <c r="K62" s="62" t="n">
         <v>45534</v>
       </c>
-      <c r="L62" s="59" t="n">
+      <c r="L62" s="60" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="59" t="n">
+    <row r="63" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="60" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="60" t="s">
         <v>668</v>
       </c>
       <c r="E63" s="61" t="n">
         <v>2.34236111111111</v>
       </c>
-      <c r="F63" s="59" t="n">
+      <c r="F63" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="G63" s="59" t="n">
+      <c r="G63" s="60" t="n">
         <v>50</v>
       </c>
-      <c r="H63" s="59" t="n">
+      <c r="H63" s="60" t="n">
         <v>8.1</v>
       </c>
-      <c r="I63" s="59" t="s">
+      <c r="I63" s="60" t="s">
         <v>669</v>
       </c>
-      <c r="J63" s="59" t="s">
+      <c r="J63" s="60" t="s">
         <v>670</v>
       </c>
       <c r="K63" s="62" t="n">
         <v>45538</v>
       </c>
-      <c r="L63" s="59" t="n">
+      <c r="L63" s="60" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="59" t="n">
+    <row r="64" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="60" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="60" t="s">
         <v>304</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="60" t="s">
         <v>671</v>
       </c>
       <c r="E64" s="64" t="n">
         <v>0.820138888888889</v>
       </c>
-      <c r="F64" s="59" t="n">
+      <c r="F64" s="60" t="n">
         <v>40</v>
       </c>
-      <c r="G64" s="59" t="n">
+      <c r="G64" s="60" t="n">
         <v>40</v>
       </c>
-      <c r="H64" s="59" t="n">
+      <c r="H64" s="60" t="n">
         <v>2.25</v>
       </c>
-      <c r="I64" s="59" t="s">
+      <c r="I64" s="60" t="s">
         <v>672</v>
       </c>
-      <c r="J64" s="59" t="s">
+      <c r="J64" s="60" t="s">
         <v>673</v>
       </c>
       <c r="K64" s="62" t="n">
         <v>45531</v>
       </c>
-      <c r="L64" s="59" t="n">
+      <c r="L64" s="60" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="59" t="n">
+    <row r="65" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="60" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="60" t="s">
         <v>626</v>
       </c>
       <c r="E65" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F65" s="59" t="n">
+      <c r="F65" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="G65" s="59" t="n">
+      <c r="G65" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="H65" s="59" t="n">
+      <c r="H65" s="60" t="n">
         <v>8.92</v>
       </c>
-      <c r="I65" s="59" t="s">
+      <c r="I65" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="J65" s="59" t="s">
+      <c r="J65" s="60" t="s">
         <v>652</v>
       </c>
       <c r="K65" s="62" t="n">
         <v>45513</v>
       </c>
-      <c r="L65" s="59" t="n">
+      <c r="L65" s="60" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="59" t="n">
+    <row r="66" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="60" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="60" t="s">
         <v>665</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="60" t="s">
         <v>666</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="60" t="s">
         <v>674</v>
       </c>
       <c r="E66" s="63" t="n">
         <v>0.053599537037037</v>
       </c>
-      <c r="F66" s="59" t="n">
+      <c r="F66" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="G66" s="59" t="n">
+      <c r="G66" s="60" t="n">
         <v>-20</v>
       </c>
-      <c r="H66" s="59" t="n">
+      <c r="H66" s="60" t="n">
         <v>9.03</v>
       </c>
-      <c r="I66" s="59" t="s">
+      <c r="I66" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="J66" s="59" t="s">
+      <c r="J66" s="60" t="s">
         <v>295</v>
       </c>
       <c r="K66" s="62" t="n">
         <v>45513</v>
       </c>
-      <c r="L66" s="59" t="n">
+      <c r="L66" s="60" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="59" t="n">
+    <row r="67" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="60" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="60" t="s">
         <v>674</v>
       </c>
       <c r="E67" s="63" t="n">
         <v>0.0536342592592593</v>
       </c>
-      <c r="F67" s="59" t="n">
+      <c r="F67" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="G67" s="59" t="n">
+      <c r="G67" s="60" t="n">
         <v>-20</v>
       </c>
-      <c r="H67" s="59" t="n">
+      <c r="H67" s="60" t="n">
         <v>8.95</v>
       </c>
-      <c r="I67" s="59" t="s">
+      <c r="I67" s="60" t="s">
         <v>675</v>
       </c>
-      <c r="J67" s="59" t="s">
+      <c r="J67" s="60" t="s">
         <v>676</v>
       </c>
       <c r="K67" s="62" t="n">
         <v>45513</v>
       </c>
-      <c r="L67" s="59" t="n">
+      <c r="L67" s="60" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="59" t="n">
+    <row r="68" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="60" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="C68" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="D68" s="60" t="s">
         <v>674</v>
       </c>
       <c r="E68" s="63" t="n">
         <v>0.0536805555555556</v>
       </c>
-      <c r="F68" s="59" t="n">
+      <c r="F68" s="60" t="n">
         <v>160</v>
       </c>
-      <c r="G68" s="59" t="n">
+      <c r="G68" s="60" t="n">
         <v>-20</v>
       </c>
-      <c r="H68" s="59" t="n">
+      <c r="H68" s="60" t="n">
         <v>8.92</v>
       </c>
-      <c r="I68" s="59" t="s">
+      <c r="I68" s="60" t="s">
         <v>677</v>
       </c>
-      <c r="J68" s="59" t="s">
+      <c r="J68" s="60" t="s">
         <v>337</v>
       </c>
       <c r="K68" s="62" t="n">
         <v>45513</v>
       </c>
-      <c r="L68" s="59" t="n">
+      <c r="L68" s="60" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="59" t="n">
+    <row r="69" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="60" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="59" t="s">
+      <c r="D69" s="60" t="s">
         <v>678</v>
       </c>
       <c r="E69" s="63" t="n">
         <v>0.129953703703704</v>
       </c>
-      <c r="F69" s="59" t="n">
+      <c r="F69" s="60" t="n">
         <v>140</v>
       </c>
-      <c r="G69" s="59" t="n">
+      <c r="G69" s="60" t="n">
         <v>-1140</v>
       </c>
-      <c r="H69" s="59" t="n">
+      <c r="H69" s="60" t="n">
         <v>8.36</v>
       </c>
-      <c r="I69" s="59" t="s">
+      <c r="I69" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="J69" s="59" t="s">
+      <c r="J69" s="60" t="s">
         <v>316</v>
       </c>
       <c r="K69" s="62" t="n">
         <v>45536</v>
       </c>
-      <c r="L69" s="59" t="n">
+      <c r="L69" s="60" t="n">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -22974,19 +22973,19 @@
   </sheetPr>
   <dimension ref="B1:G47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="14.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="7" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -23831,7 +23830,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -23847,60 +23846,60 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="9.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="9.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="10.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="12.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="12.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="9.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="13.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="11.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="10.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="13.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="16.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="9.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="48" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="9.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="48" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -24576,7 +24575,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -24592,21 +24591,21 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="9" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -25589,7 +25588,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -25609,20 +25608,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="9" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41"/>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -25634,7 +25633,7 @@
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="41"/>
       <c r="B2" s="42" t="s">
         <v>46</v>
@@ -25662,7 +25661,7 @@
       </c>
       <c r="J2" s="41"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="41"/>
       <c r="B3" s="45" t="s">
         <v>28</v>
@@ -25683,15 +25682,15 @@
         <v>210</v>
       </c>
       <c r="H3" s="46" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I3" s="47" t="n">
         <f aca="false">C3+D3+E3+F3+G3+H3</f>
-        <v>1360</v>
+        <v>1370</v>
       </c>
       <c r="J3" s="41"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="41"/>
       <c r="B4" s="48" t="s">
         <v>23</v>
@@ -25720,7 +25719,7 @@
       </c>
       <c r="J4" s="41"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="41"/>
       <c r="B5" s="48" t="s">
         <v>34</v>
@@ -25749,7 +25748,7 @@
       </c>
       <c r="J5" s="41"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41"/>
       <c r="B6" s="48" t="s">
         <v>21</v>
@@ -25776,7 +25775,7 @@
       </c>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="41"/>
       <c r="B7" s="48" t="s">
         <v>31</v>
@@ -25805,7 +25804,7 @@
       </c>
       <c r="J7" s="41"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="41"/>
       <c r="B8" s="48" t="s">
         <v>40</v>
@@ -25832,7 +25831,7 @@
       </c>
       <c r="J8" s="41"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="41"/>
       <c r="B9" s="48" t="s">
         <v>5</v>
@@ -25861,7 +25860,7 @@
       </c>
       <c r="J9" s="41"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="41"/>
       <c r="B10" s="48" t="s">
         <v>12</v>
@@ -25888,7 +25887,7 @@
       </c>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="41"/>
       <c r="B11" s="48" t="s">
         <v>19</v>
@@ -25917,7 +25916,7 @@
       </c>
       <c r="J11" s="41"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="41"/>
       <c r="B12" s="48" t="s">
         <v>11</v>
@@ -25946,7 +25945,7 @@
       </c>
       <c r="J12" s="41"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="41"/>
       <c r="B13" s="48" t="s">
         <v>26</v>
@@ -25975,7 +25974,7 @@
       </c>
       <c r="J13" s="41"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="41"/>
       <c r="B14" s="48" t="s">
         <v>41</v>
@@ -26004,7 +26003,7 @@
       </c>
       <c r="J14" s="41"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="41"/>
       <c r="B15" s="48" t="s">
         <v>20</v>
@@ -26033,7 +26032,7 @@
       </c>
       <c r="J15" s="41"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41"/>
       <c r="B16" s="48" t="s">
         <v>39</v>
@@ -26060,7 +26059,7 @@
       </c>
       <c r="J16" s="41"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="41"/>
       <c r="B17" s="48" t="s">
         <v>42</v>
@@ -26089,7 +26088,7 @@
       </c>
       <c r="J17" s="41"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="41"/>
       <c r="B18" s="48" t="s">
         <v>43</v>
@@ -26118,7 +26117,7 @@
       </c>
       <c r="J18" s="41"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="41"/>
       <c r="B19" s="48" t="s">
         <v>32</v>
@@ -26147,7 +26146,7 @@
       </c>
       <c r="J19" s="41"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="41"/>
       <c r="B20" s="48" t="s">
         <v>44</v>
@@ -26174,7 +26173,7 @@
       </c>
       <c r="J20" s="41"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="41"/>
       <c r="B21" s="48" t="s">
         <v>36</v>
@@ -26199,7 +26198,7 @@
       </c>
       <c r="J21" s="41"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="41"/>
       <c r="B22" s="48" t="s">
         <v>17</v>
@@ -26226,7 +26225,7 @@
       </c>
       <c r="J22" s="41"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="41"/>
       <c r="B23" s="48" t="s">
         <v>25</v>
@@ -26251,7 +26250,7 @@
       </c>
       <c r="J23" s="41"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="41"/>
       <c r="B24" s="48" t="s">
         <v>30</v>
@@ -26274,7 +26273,7 @@
       </c>
       <c r="J24" s="41"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="41"/>
       <c r="B25" s="48" t="s">
         <v>22</v>
@@ -26299,7 +26298,7 @@
       </c>
       <c r="J25" s="41"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="41"/>
       <c r="B26" s="48" t="s">
         <v>35</v>
@@ -26324,7 +26323,7 @@
       </c>
       <c r="J26" s="41"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="41"/>
       <c r="B27" s="48" t="s">
         <v>29</v>
@@ -26347,7 +26346,7 @@
       </c>
       <c r="J27" s="41"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="41"/>
       <c r="B28" s="48" t="s">
         <v>24</v>
@@ -26372,7 +26371,7 @@
       </c>
       <c r="J28" s="41"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="41"/>
       <c r="B29" s="48" t="s">
         <v>13</v>
@@ -26393,7 +26392,7 @@
       </c>
       <c r="J29" s="41"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="41"/>
       <c r="B30" s="48" t="s">
         <v>27</v>
@@ -26414,7 +26413,7 @@
       </c>
       <c r="J30" s="41"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="41"/>
       <c r="B31" s="48" t="s">
         <v>7</v>
@@ -26437,7 +26436,7 @@
       </c>
       <c r="J31" s="41"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="41"/>
       <c r="B32" s="48" t="s">
         <v>10</v>
@@ -26458,7 +26457,7 @@
       </c>
       <c r="J32" s="41"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="41"/>
       <c r="B33" s="48" t="s">
         <v>16</v>
@@ -26479,7 +26478,7 @@
       </c>
       <c r="J33" s="41"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="41"/>
       <c r="B34" s="48" t="s">
         <v>33</v>
@@ -26500,7 +26499,7 @@
       </c>
       <c r="J34" s="41"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="41"/>
       <c r="B35" s="48" t="s">
         <v>59</v>
@@ -26521,7 +26520,7 @@
       </c>
       <c r="J35" s="41"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="41"/>
       <c r="B36" s="48" t="s">
         <v>50</v>
@@ -26540,7 +26539,7 @@
       </c>
       <c r="J36" s="41"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="41"/>
       <c r="B37" s="48" t="s">
         <v>8</v>
@@ -26561,7 +26560,7 @@
       </c>
       <c r="J37" s="41"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="41"/>
       <c r="B38" s="48" t="s">
         <v>18</v>
@@ -26582,7 +26581,7 @@
       </c>
       <c r="J38" s="41"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="41"/>
       <c r="B39" s="48" t="s">
         <v>9</v>
@@ -26601,7 +26600,7 @@
       </c>
       <c r="J39" s="41"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="41"/>
       <c r="B40" s="48" t="s">
         <v>15</v>
@@ -26620,7 +26619,7 @@
       </c>
       <c r="J40" s="41"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="41"/>
       <c r="B41" s="48" t="s">
         <v>51</v>
@@ -26639,7 +26638,7 @@
       </c>
       <c r="J41" s="41"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="41"/>
       <c r="B42" s="48" t="s">
         <v>53</v>
@@ -26660,7 +26659,7 @@
       </c>
       <c r="J42" s="41"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="41"/>
       <c r="B43" s="48" t="s">
         <v>37</v>
@@ -26679,7 +26678,7 @@
       </c>
       <c r="J43" s="41"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="41"/>
       <c r="B44" s="48" t="s">
         <v>63</v>
@@ -26698,7 +26697,7 @@
       </c>
       <c r="J44" s="41"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="41"/>
       <c r="B45" s="48" t="s">
         <v>6</v>
@@ -26717,7 +26716,7 @@
       </c>
       <c r="J45" s="41"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="41"/>
       <c r="B46" s="48" t="s">
         <v>38</v>
@@ -26736,7 +26735,7 @@
       </c>
       <c r="J46" s="41"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="41"/>
       <c r="B47" s="48" t="s">
         <v>52</v>
@@ -26755,7 +26754,7 @@
       </c>
       <c r="J47" s="41"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="41"/>
       <c r="B48" s="48" t="s">
         <v>65</v>
@@ -26774,7 +26773,7 @@
       </c>
       <c r="J48" s="41"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="41"/>
       <c r="B49" s="48" t="s">
         <v>45</v>
@@ -26793,7 +26792,7 @@
       </c>
       <c r="J49" s="41"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="41"/>
       <c r="B50" s="51" t="s">
         <v>57</v>
@@ -26812,7 +26811,7 @@
       </c>
       <c r="J50" s="41"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -26826,7 +26825,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -26842,18 +26841,18 @@
   </sheetPr>
   <dimension ref="A1:N315"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="1" width="10.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="15" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="1" width="10.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41023,11 +41022,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.138888888888889" bottom="0.138888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10ffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10ffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -41043,24 +41042,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="14.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="13" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -41098,7 +41097,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -41136,7 +41135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -41174,7 +41173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -41212,7 +41211,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -41250,7 +41249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -41288,7 +41287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -41326,7 +41325,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -41364,7 +41363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -41402,7 +41401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -41440,7 +41439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -41478,7 +41477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -41516,7 +41515,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -41554,7 +41553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -41592,7 +41591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -41630,7 +41629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -41668,7 +41667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -41706,7 +41705,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -41744,7 +41743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -41782,7 +41781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -41820,7 +41819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -41858,7 +41857,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -41896,7 +41895,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -41934,7 +41933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -41972,7 +41971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -42010,7 +42009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -42048,7 +42047,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -42086,7 +42085,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -42124,7 +42123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -42162,7 +42161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -42200,7 +42199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -42238,7 +42237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -42276,7 +42275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -42314,7 +42313,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -42352,7 +42351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -42390,7 +42389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -42428,7 +42427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -42466,7 +42465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -42504,7 +42503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -42542,7 +42541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -42580,7 +42579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -42618,7 +42617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -42656,7 +42655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -42694,7 +42693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -42732,7 +42731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -42770,7 +42769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -42808,7 +42807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -42846,7 +42845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -42884,7 +42883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -42922,7 +42921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -42960,7 +42959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -42998,7 +42997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -43036,7 +43035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
@@ -43074,7 +43073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -43112,7 +43111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
@@ -43150,7 +43149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
@@ -43188,7 +43187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -43226,7 +43225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
@@ -43264,7 +43263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -43302,7 +43301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -43337,7 +43336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -43375,7 +43374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -43413,7 +43412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -43451,7 +43450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -43491,11 +43490,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.138888888888889" bottom="0.138888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10ffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10ffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -43511,21 +43510,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="13" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45845,11 +45844,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.138888888888889" bottom="0.138888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10ffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10ffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -45865,11 +45864,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="1" style="54" width="8.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="54" width="10.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="12" style="54" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="54" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="54" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="54" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="13" style="59" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47508,7 +47508,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
